--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1676278.331527938</v>
+        <v>1669105.042817655</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702201</v>
       </c>
     </row>
     <row r="8">
@@ -664,70 +664,70 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>205.0481221176458</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>16.15254088235802</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>37.4268167426368</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>205.8118405263978</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>60.02237271970545</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.541072473920325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>29.71014592494668</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>49.22000775679988</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.83013367771037</v>
+        <v>14.83013367771038</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.891130363991724</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385217</v>
+        <v>120.1819171385225</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658049</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281882</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.4580015512968</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>130.6749864732183</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>115.2108930055043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>137.164983343976</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>55.13957087283069</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358477</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>308.9734542191752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>334.1169017826961</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>79.0970521767109</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634311</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>87.60442205160145</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>43.03801681746327</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>49.15542088179965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>161.1706059301397</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.7660731567841</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>23.1797972192972</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>106.1850234365639</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151926</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>57.69999672039328</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.93408156253768</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>128.4285848360769</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>76.31783716350026</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>276.1491823570823</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>127.8144229774396</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>208.2679477631763</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617.7893333662367</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="C2" t="n">
-        <v>617.7893333662367</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="D2" t="n">
-        <v>617.7893333662367</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="E2" t="n">
-        <v>338.843359929514</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>59.89738649279127</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4339,13 +4339,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4357,25 +4357,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029595</v>
+        <v>1088.310356948454</v>
       </c>
       <c r="T2" t="n">
-        <v>896.7353068029595</v>
+        <v>1088.310356948454</v>
       </c>
       <c r="U2" t="n">
-        <v>896.7353068029595</v>
+        <v>1088.310356948454</v>
       </c>
       <c r="V2" t="n">
-        <v>896.7353068029595</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="W2" t="n">
-        <v>617.7893333662367</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="X2" t="n">
-        <v>617.7893333662367</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="Y2" t="n">
-        <v>617.7893333662367</v>
+        <v>530.4184100750089</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>592.3972910265347</v>
+        <v>82.72118040902222</v>
       </c>
       <c r="C3" t="n">
-        <v>417.9442617454077</v>
+        <v>82.72118040902222</v>
       </c>
       <c r="D3" t="n">
-        <v>269.0098520841565</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
@@ -4421,13 +4421,13 @@
         <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>759.2151904085662</v>
+        <v>815.0378848195531</v>
       </c>
       <c r="O3" t="n">
-        <v>1025.71200399185</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4436,25 +4436,25 @@
         <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T3" t="n">
-        <v>836.1767451915302</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U3" t="n">
-        <v>836.1767451915302</v>
+        <v>779.9621455744993</v>
       </c>
       <c r="V3" t="n">
-        <v>601.0246369597876</v>
+        <v>544.8100373427567</v>
       </c>
       <c r="W3" t="n">
-        <v>601.0246369597876</v>
+        <v>290.5726806145551</v>
       </c>
       <c r="X3" t="n">
-        <v>601.0246369597876</v>
+        <v>82.72118040902222</v>
       </c>
       <c r="Y3" t="n">
-        <v>592.3972910265347</v>
+        <v>82.72118040902222</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>52.1027695052255</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>52.1027695052255</v>
       </c>
       <c r="H4" t="n">
         <v>22.09252109618844</v>
@@ -4521,19 +4521,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.61903893580825</v>
+        <v>459.6714823837788</v>
       </c>
       <c r="C5" t="n">
-        <v>55.61903893580825</v>
+        <v>459.6714823837788</v>
       </c>
       <c r="D5" t="n">
-        <v>55.61903893580825</v>
+        <v>101.4057837770283</v>
       </c>
       <c r="E5" t="n">
-        <v>55.61903893580825</v>
+        <v>51.6886042247052</v>
       </c>
       <c r="F5" t="n">
-        <v>48.67353818660477</v>
+        <v>44.74310347550173</v>
       </c>
       <c r="G5" t="n">
-        <v>33.69360517881652</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="H5" t="n">
-        <v>33.69360517881652</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771377</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380406</v>
+        <v>57.64391735380264</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456879</v>
+        <v>220.1747338456848</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039976</v>
+        <v>474.0852112039925</v>
       </c>
       <c r="M5" t="n">
-        <v>773.216086049416</v>
+        <v>773.2160860494087</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635722</v>
+        <v>1062.555213635712</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293128</v>
+        <v>1290.582309293116</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.52377693588</v>
+        <v>1447.523776935866</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385673</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488176</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.762647488176</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488192</v>
+        <v>1143.503024997464</v>
       </c>
       <c r="U5" t="n">
-        <v>1112.916339810573</v>
+        <v>1143.503024997464</v>
       </c>
       <c r="V5" t="n">
-        <v>781.8534524670023</v>
+        <v>812.440137653893</v>
       </c>
       <c r="W5" t="n">
-        <v>429.0847971968881</v>
+        <v>459.6714823837788</v>
       </c>
       <c r="X5" t="n">
-        <v>55.61903893580825</v>
+        <v>459.6714823837788</v>
       </c>
       <c r="Y5" t="n">
-        <v>55.61903893580825</v>
+        <v>459.6714823837788</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434.6561885644545</v>
+        <v>658.9226223886623</v>
       </c>
       <c r="C6" t="n">
-        <v>260.2031592833275</v>
+        <v>484.4695931075353</v>
       </c>
       <c r="D6" t="n">
-        <v>111.2687496220762</v>
+        <v>335.535183446284</v>
       </c>
       <c r="E6" t="n">
-        <v>111.2687496220762</v>
+        <v>176.2977284408285</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771377</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771377</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="K6" t="n">
-        <v>29.76317046771377</v>
+        <v>195.5446164760251</v>
       </c>
       <c r="L6" t="n">
-        <v>314.08117961385</v>
+        <v>479.8626256221598</v>
       </c>
       <c r="M6" t="n">
-        <v>682.4004141518078</v>
+        <v>710.1745897963985</v>
       </c>
       <c r="N6" t="n">
-        <v>1050.719648689766</v>
+        <v>1078.493824334353</v>
       </c>
       <c r="O6" t="n">
-        <v>1359.034530062085</v>
+        <v>1386.80870570667</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385688</v>
+        <v>1386.80870570667</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385673</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707611</v>
+        <v>1488.158523385673</v>
       </c>
       <c r="S6" t="n">
-        <v>1402.847410707611</v>
+        <v>1356.163587554139</v>
       </c>
       <c r="T6" t="n">
-        <v>1201.690336058659</v>
+        <v>1356.163587554139</v>
       </c>
       <c r="U6" t="n">
-        <v>973.4835217122234</v>
+        <v>1356.163587554139</v>
       </c>
       <c r="V6" t="n">
-        <v>973.4835217122234</v>
+        <v>1121.011479322397</v>
       </c>
       <c r="W6" t="n">
-        <v>719.2461649840218</v>
+        <v>866.7741225941951</v>
       </c>
       <c r="X6" t="n">
-        <v>719.2461649840218</v>
+        <v>658.9226223886623</v>
       </c>
       <c r="Y6" t="n">
-        <v>602.8715255845225</v>
+        <v>658.9226223886623</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="D7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="E7" t="n">
-        <v>315.2036061918674</v>
+        <v>176.6531179656238</v>
       </c>
       <c r="F7" t="n">
-        <v>315.2036061918674</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="G7" t="n">
-        <v>259.5070699566849</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="H7" t="n">
-        <v>259.5070699566849</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723448</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771377</v>
+        <v>29.76317046771346</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888156</v>
+        <v>32.09990175888058</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611266</v>
+        <v>90.6165479061108</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236688</v>
+        <v>162.703269723666</v>
       </c>
       <c r="N7" t="n">
-        <v>238.510546840002</v>
+        <v>238.5105468399983</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057945</v>
+        <v>292.51454150579</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918622</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1194.987092912972</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>784.0011881233647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>366.0373800215516</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,22 +4807,22 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2028.59438369213</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2028.59438369213</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1638.455051716319</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433114</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954965</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954965</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954965</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954965</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954965</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>816.7950850315615</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1124.115218311523</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975556</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>905.4512032809276</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6074,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>233.3444380833002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>1270.926719659885</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.134140516355</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6226,13 +6226,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>1354.17636097712</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W28" t="n">
-        <v>1064.759190940159</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X28" t="n">
-        <v>836.769640042142</v>
+        <v>905.1671280158237</v>
       </c>
       <c r="Y28" t="n">
-        <v>615.9770608986119</v>
+        <v>881.753191430675</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,16 +6466,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6548,13 +6548,13 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
         <v>2123.441607278215</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>785.4801130615103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>616.5439301336035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.92115703528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>967.1285778917501</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1427.741252113634</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1757.603879777666</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2037.143944996363</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916677</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916677</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916677</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.149147719352</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.246603057542</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851655</v>
+        <v>1151.504806801366</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814694</v>
+        <v>862.0876367644058</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916677</v>
+        <v>634.0980858663885</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916677</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>732.169830515405</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
         <v>1843.901542059518</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.396996252309</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.396996252309</v>
       </c>
       <c r="T37" t="n">
-        <v>1369.190427289138</v>
+        <v>1440.396996252309</v>
       </c>
       <c r="U37" t="n">
-        <v>1369.190427289138</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V37" t="n">
-        <v>1369.190427289138</v>
+        <v>896.58386925998</v>
       </c>
       <c r="W37" t="n">
-        <v>1369.190427289138</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X37" t="n">
-        <v>1141.200876391121</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.200876391121</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>493.3586382081045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>324.4224552801976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>174.3058158678619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>174.3058158678619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>174.3058158678619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V43" t="n">
-        <v>675.0071030383442</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W43" t="n">
-        <v>675.0071030383442</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X43" t="n">
-        <v>675.0071030383442</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y43" t="n">
-        <v>675.0071030383442</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>462.7283310300498</v>
+        <v>474.7746905116409</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365139</v>
+        <v>721.5398184181049</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880508</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.0324822735073</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>506.0324822735073</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>506.0324822735073</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0324822735073</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>506.0324822735073</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>337.8571605933279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>331.5199135162567</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948384</v>
+        <v>102.9473967948391</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357574</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835734</v>
+        <v>310.7020700878993</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470459</v>
+        <v>437.6152809470439</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>216.1164930638097</v>
+        <v>85.68821697936292</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247342</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415606</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>158.8724419039332</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>159.0121003135246</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>104.6241510367947</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>87.16935584025396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>73.53204524669994</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>159.0121003135241</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>73.53204524669994</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>50.62661940943616</v>
+        <v>62.79465928983115</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>130.9802313004934</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>124.2088042811646</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>237.3675774547914</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>5.322962533237842</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>14.147755210752</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,16 +24417,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>282.8896567338145</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>195.4048561327976</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>60.30854502681369</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>194.4376466034347</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>52.0302708412551</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>93.1189762223124</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>90.17573129987733</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>10.08817004149506</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>21.09940539009651</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>77.96940463540108</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>910166.4971809811</v>
+        <v>910166.497180981</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>910166.4971809812</v>
+        <v>910166.4971809811</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>910166.4971809811</v>
+        <v>910166.4971809812</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>910166.4971809812</v>
+        <v>910166.4971809811</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>910166.4971809811</v>
+        <v>910166.4971809812</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>910166.4971809812</v>
+        <v>910166.4971809811</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>910166.4971809812</v>
+        <v>910166.4971809811</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>910166.4971809811</v>
+        <v>910166.4971809812</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="H2" t="n">
         <v>508337.7776590215</v>
-      </c>
-      <c r="F2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="G2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590218</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590218</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590217</v>
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703837</v>
+        <v>106137.1517703795</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.942425211</v>
+        <v>316711.9424252147</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313413</v>
+        <v>24677.2460931331</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817148</v>
+        <v>76496.15793817231</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>325319.6241977946</v>
       </c>
       <c r="C4" t="n">
-        <v>295391.3642791486</v>
+        <v>295391.3642791498</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="F4" t="n">
         <v>50690.35944859718</v>
       </c>
       <c r="G4" t="n">
-        <v>50690.3594485972</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="H4" t="n">
-        <v>50690.3594485972</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="I4" t="n">
-        <v>50690.3594485972</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="J4" t="n">
         <v>50690.35944859718</v>
@@ -26447,16 +26447,16 @@
         <v>50690.35944859717</v>
       </c>
       <c r="L4" t="n">
+        <v>50690.35944859717</v>
+      </c>
+      <c r="M4" t="n">
         <v>50690.35944859718</v>
       </c>
-      <c r="M4" t="n">
-        <v>50690.35944859717</v>
-      </c>
       <c r="N4" t="n">
-        <v>50690.35944859717</v>
+        <v>50690.35944859718</v>
       </c>
       <c r="O4" t="n">
-        <v>50690.35944859717</v>
+        <v>50690.35944859718</v>
       </c>
       <c r="P4" t="n">
         <v>50690.35944859717</v>
@@ -26472,16 +26472,16 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485713</v>
+        <v>58810.42201485683</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30882.80525039678</v>
+        <v>30882.8052503966</v>
       </c>
       <c r="C6" t="n">
-        <v>73338.21234739495</v>
+        <v>73338.21234739828</v>
       </c>
       <c r="D6" t="n">
-        <v>-66958.37600456757</v>
+        <v>-66958.37600457142</v>
       </c>
       <c r="E6" t="n">
-        <v>-159499.9442151883</v>
+        <v>-160474.5354749103</v>
       </c>
       <c r="F6" t="n">
-        <v>365660.0922617077</v>
+        <v>364685.5010019862</v>
       </c>
       <c r="G6" t="n">
-        <v>365660.0922617076</v>
+        <v>364685.5010019862</v>
       </c>
       <c r="H6" t="n">
-        <v>365660.0922617079</v>
+        <v>364685.501001986</v>
       </c>
       <c r="I6" t="n">
-        <v>365660.0922617078</v>
+        <v>364685.5010019861</v>
       </c>
       <c r="J6" t="n">
-        <v>293405.3973905689</v>
+        <v>292430.8061308471</v>
       </c>
       <c r="K6" t="n">
-        <v>340982.8461685738</v>
+        <v>340008.2549088531</v>
       </c>
       <c r="L6" t="n">
-        <v>289163.9343235363</v>
+        <v>288189.3430638139</v>
       </c>
       <c r="M6" t="n">
-        <v>230859.0770278707</v>
+        <v>229884.485768149</v>
       </c>
       <c r="N6" t="n">
-        <v>365660.0922617079</v>
+        <v>364685.5010019862</v>
       </c>
       <c r="O6" t="n">
-        <v>365660.0922617079</v>
+        <v>364685.5010019859</v>
       </c>
       <c r="P6" t="n">
-        <v>365660.0922617079</v>
+        <v>364685.5010019862</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.560204559389</v>
+        <v>117.5602045593857</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464221</v>
+        <v>372.0396308464183</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026364</v>
+        <v>82.53894384026037</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576977</v>
+        <v>260.1834596577006</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.8831171440666</v>
+        <v>95.88311714406281</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081335</v>
+        <v>302.2476419081373</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>276.1565137023557</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440666</v>
+        <v>95.88311714406258</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081337</v>
+        <v>302.247641908137</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440666</v>
+        <v>95.88311714406281</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081335</v>
+        <v>302.2476419081373</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>377.7351317846827</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>189.6592996440398</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27438,16 +27438,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="3">
@@ -27460,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>87.42269284493329</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>197.141623303384</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>131.9555381729305</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27593,7 +27593,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>332.7103623154619</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657418</v>
       </c>
       <c r="I5" t="n">
-        <v>188.3646997640992</v>
+        <v>192.2558301280915</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>198.2506096409307</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>109.7932973455553</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281906</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129724</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>36.31132174091198</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>90.47180277180006</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>9.268979302593152</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>112.6394146741275</v>
+        <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>149.0752428504968</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.3712176435852</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322665</v>
+        <v>68.41045236322714</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255181</v>
+        <v>167.7613787255183</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>14.94931854518194</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>15.12406693471695</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>207.4259461598801</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866365</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246789</v>
+        <v>0.4726038374246658</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025494</v>
+        <v>4.84005405002536</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231495</v>
+        <v>18.22005944231445</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662288</v>
+        <v>40.11165994662176</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480955</v>
+        <v>60.11698038480788</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439508</v>
+        <v>74.58043007439301</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819622</v>
+        <v>82.98509856819391</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127909</v>
+        <v>84.32788422127675</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288743</v>
+        <v>79.62842981288523</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646567</v>
+        <v>67.96102257646378</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869434</v>
+        <v>51.03589764869292</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262802</v>
+        <v>29.68720080262719</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531488</v>
+        <v>10.76945994531458</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326533</v>
+        <v>2.068823298326476</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397431</v>
+        <v>0.03780830699397326</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560442</v>
+        <v>0.2528653456560372</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44214689094127</v>
+        <v>2.442146890941202</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859626</v>
+        <v>8.706109488596018</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182829</v>
+        <v>23.89022987182762</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078325</v>
+        <v>40.83220803078211</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483539</v>
+        <v>54.90394270483387</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486699</v>
+        <v>64.0703114848652</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827095</v>
+        <v>65.76606198270767</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106767</v>
+        <v>60.163098271066</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496866</v>
+        <v>48.28619043496732</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128733</v>
+        <v>32.27803956128643</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134633</v>
+        <v>15.69983260134589</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707661</v>
+        <v>4.69686288970753</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359231</v>
+        <v>1.019224792359202</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368713</v>
+        <v>0.01663587800368667</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005375</v>
+        <v>0.2119938115005316</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886598</v>
+        <v>1.884817705886546</v>
       </c>
       <c r="I7" t="n">
-        <v>6.37523207676162</v>
+        <v>6.375232076761443</v>
       </c>
       <c r="J7" t="n">
-        <v>14.987962473088</v>
+        <v>14.98796247308758</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342608</v>
+        <v>24.62982646342539</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072537</v>
+        <v>31.51769812072449</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094334</v>
+        <v>33.23099356094242</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898681</v>
+        <v>32.44083480898591</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736689</v>
+        <v>29.96436164736606</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275591</v>
+        <v>25.63968789275519</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846774</v>
+        <v>17.75159088846724</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651437</v>
+        <v>9.532012651651172</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513911</v>
+        <v>3.694473969513808</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477508</v>
+        <v>0.9057917400477257</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912024</v>
+        <v>0.01156329880911992</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>219.7699536912575</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201036</v>
+        <v>28.16237059200925</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109937</v>
+        <v>164.1725419109921</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548583</v>
+        <v>256.4752296548562</v>
       </c>
       <c r="M5" t="n">
-        <v>302.152398833756</v>
+        <v>302.1523988337536</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366723</v>
+        <v>292.26174503667</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539461</v>
+        <v>230.3303996539439</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926788</v>
+        <v>158.5267349926769</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414953</v>
+        <v>41.04519843414811</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690017</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284204</v>
+        <v>287.1899082284189</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464221</v>
+        <v>232.6383476507462</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464221</v>
+        <v>372.0396308464183</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033528</v>
+        <v>311.4291731033511</v>
       </c>
       <c r="P6" t="n">
-        <v>130.4282760844481</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.373553211114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543225</v>
+        <v>2.36033463754254</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104151</v>
+        <v>59.10772338104063</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278393</v>
+        <v>72.814870522783</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882154</v>
+        <v>76.5730071882145</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140656</v>
+        <v>54.54948956140574</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764939</v>
+        <v>22.91824715764868</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775188</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>441.2361441450414</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>408.2698052695489</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>353.881855992819</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36925,7 +36925,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>294.2627707717787</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1074838346392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37636,16 +37636,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>366.1055152450488</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>224.1074838346392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37870,19 +37870,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>201.2020579973754</v>
+        <v>213.3700978777704</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38107,19 +38107,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
